--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -24,6 +24,18 @@
   </si>
   <si>
     <t>13_12_22172250</t>
+  </si>
+  <si>
+    <t>Create citizenship from excel</t>
+  </si>
+  <si>
+    <t>16_12_22022513</t>
+  </si>
+  <si>
+    <t>Delete citizenship from excel</t>
+  </si>
+  <si>
+    <t>16_12_22022550</t>
   </si>
 </sst>
 </file>
@@ -68,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +100,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -36,6 +36,45 @@
   </si>
   <si>
     <t>16_12_22022550</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>17_12_22145917</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>17_12_22145920</t>
+  </si>
+  <si>
+    <t>CitizenShip Create</t>
+  </si>
+  <si>
+    <t>17_12_22145951</t>
+  </si>
+  <si>
+    <t>17_12_22150006</t>
+  </si>
+  <si>
+    <t>17_12_22150036</t>
+  </si>
+  <si>
+    <t>17_12_22150058</t>
+  </si>
+  <si>
+    <t>Create Country</t>
+  </si>
+  <si>
+    <t>23_12_22102526</t>
+  </si>
+  <si>
+    <t>Create a country parameter data</t>
+  </si>
+  <si>
+    <t>23_12_22102546</t>
   </si>
 </sst>
 </file>
@@ -80,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -128,6 +167,146 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>23_12_22102546</t>
+  </si>
+  <si>
+    <t>States testing with JDBC</t>
+  </si>
+  <si>
+    <t>30_12_22000012</t>
+  </si>
+  <si>
+    <t>30_12_22001110</t>
+  </si>
+  <si>
+    <t>30_12_22002214</t>
+  </si>
+  <si>
+    <t>30_12_22002426</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -307,6 +322,62 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -90,6 +90,48 @@
   </si>
   <si>
     <t>30_12_22002426</t>
+  </si>
+  <si>
+    <t>01_01_23014149</t>
+  </si>
+  <si>
+    <t>Create a Nationality</t>
+  </si>
+  <si>
+    <t>01_01_23014211</t>
+  </si>
+  <si>
+    <t>Fee Functionality</t>
+  </si>
+  <si>
+    <t>01_01_23014234</t>
+  </si>
+  <si>
+    <t>01_01_23014311</t>
+  </si>
+  <si>
+    <t>01_01_23014340</t>
+  </si>
+  <si>
+    <t>01_01_23014403</t>
+  </si>
+  <si>
+    <t>Create and Delete Exam</t>
+  </si>
+  <si>
+    <t>01_01_23014529</t>
+  </si>
+  <si>
+    <t>01_01_23015001</t>
+  </si>
+  <si>
+    <t>01_01_23015824</t>
+  </si>
+  <si>
+    <t>02_01_23001643</t>
+  </si>
+  <si>
+    <t>02_01_23003204</t>
   </si>
 </sst>
 </file>
@@ -134,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -378,6 +420,160 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>02_01_23003204</t>
+  </si>
+  <si>
+    <t>17_01_23231005</t>
+  </si>
+  <si>
+    <t>17_01_23231709</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -574,6 +580,34 @@
         <v>39</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>17_01_23231709</t>
+  </si>
+  <si>
+    <t>18_01_23044211</t>
+  </si>
+  <si>
+    <t>18_01_23044243</t>
+  </si>
+  <si>
+    <t>18_01_23044606</t>
+  </si>
+  <si>
+    <t>18_01_23044624</t>
   </si>
 </sst>
 </file>
@@ -182,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -608,6 +620,62 @@
         <v>41</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
